--- a/04_data/Framerates.xlsx
+++ b/04_data/Framerates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\source\repos\MT_Augmented_Reality_Platform\04_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB03E96D-B6AF-46DB-86CF-7F7B5DA43D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33DEB58-5B92-4CFD-BCE3-03D1DC3B2C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{11A6DD76-BCD8-4085-9601-74CED8A4F5BC}"/>
   </bookViews>
@@ -420,8 +420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC0B655-C7B2-4898-B44A-6892478CEF01}">
   <dimension ref="A1:L1615"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A736" workbookViewId="0">
-      <selection activeCell="L750" sqref="L750"/>
+    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="F332" sqref="F332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12259,7 +12259,7 @@
       <c r="E749">
         <v>75.324600000000004</v>
       </c>
-      <c r="L749">
+      <c r="L749" s="1">
         <f>AVERAGE(L2:L748)</f>
         <v>202.00647483266425</v>
       </c>
